--- a/NSW-FHB-vs-Subsequent-Loan.xlsx
+++ b/NSW-FHB-vs-Subsequent-Loan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apacbrookfieldgis-my.sharepoint.com/personal/gabriel_setiawan_apac_bgis_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{9EF795B4-1EAB-4A65-BEC1-4D00CF67CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2DB145-B95F-44BC-8555-685DC671661A}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{9EF795B4-1EAB-4A65-BEC1-4D00CF67CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B87C4B48-6E3A-44E0-8C04-36DE3CEE18A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="761" firstSheet="1" activeTab="5" xr2:uid="{C8F7C0F2-68EE-4AE2-878A-187C21B50DC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="761" firstSheet="2" activeTab="5" xr2:uid="{C8F7C0F2-68EE-4AE2-878A-187C21B50DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Comaparison" sheetId="13" r:id="rId1"/>
     <sheet name="NSW-FHB-OO" sheetId="7" r:id="rId2"/>
     <sheet name="NSW-Subsequent-OO" sheetId="9" r:id="rId3"/>
-    <sheet name="NSW-FHB-Invest" sheetId="8" r:id="rId4"/>
+    <sheet name="NSW-FHB-Investment" sheetId="8" r:id="rId4"/>
     <sheet name="NSW-Subsequent-Investment" sheetId="10" r:id="rId5"/>
     <sheet name="NSW-Median-Price" sheetId="14" r:id="rId6"/>
   </sheets>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="11">
   <si>
     <t>Period</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Quantity of Subsequent Loan</t>
   </si>
   <si>
-    <t>Average of Loan (Million)</t>
-  </si>
-  <si>
     <t>Value of Subsequent Loan (Million)</t>
   </si>
   <si>
@@ -102,10 +99,10 @@
     <t>Average of Loan (,000)</t>
   </si>
   <si>
-    <t>Median Sydney</t>
+    <t>Median Sydney (,000)</t>
   </si>
   <si>
-    <t>NSW Median Other Than Sydney</t>
+    <t>NSW Median Other Than Sydney (,000)</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NSW-FHB-Invest'!$A$2:$A$62</c:f>
+              <c:f>'NSW-FHB-Investment'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1557,7 +1554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NSW-FHB-Invest'!$E$2:$E$62</c:f>
+              <c:f>'NSW-FHB-Investment'!$E$2:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="61"/>
@@ -13008,7 +13005,7 @@
     <tableColumn id="4" xr3:uid="{5702D023-29EA-40D8-A2F3-81523979C6CD}" name="Value of Subsequent Loan (Million)" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[2]Data1!$A:$A,[2]Data1!$U:$U-'NSW-FHB-OO'!D2,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC113310-7353-488E-BB5B-3BF1D287803C}" name="Average of Loan (Million)" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{AC113310-7353-488E-BB5B-3BF1D287803C}" name="Average of Loan (,000)" dataCellStyle="Currency">
       <calculatedColumnFormula>$D2/$C2*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13028,7 +13025,7 @@
     <tableColumn id="4" xr3:uid="{EC4748F7-73FC-4D69-81D7-6828F43EFD09}" name="Value of Loan (Million)" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP($A2,[3]Data1!$A:$A,[3]Data1!$L:$L,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62A437B5-7227-466B-A800-FF89A60CF41E}" name="Average of Loan (Million)" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{62A437B5-7227-466B-A800-FF89A60CF41E}" name="Average of Loan (,000)" dataCellStyle="Currency">
       <calculatedColumnFormula>$D2/$C2*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13043,12 +13040,12 @@
     <tableColumn id="1" xr3:uid="{364CAB86-5753-4D9B-A105-31DCA2A1191D}" name="Period" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{ABF3291D-B282-4143-B4CC-02851E5AD749}" name="Occupancy Type"/>
     <tableColumn id="3" xr3:uid="{C8BAF243-5213-4224-86EC-C1CFA10EACF0}" name="Quantity of Subsequent Loan">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C2,0,0)</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C2,0,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{3B98078C-C52D-4A13-B9B9-C9B148F82A20}" name="Value of Loan (Million)" dataCellStyle="Currency">
-      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D2,0,0)</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D2,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF76DBE9-7FF0-43DF-9377-7F3A48227673}" name="Average of Loan (Million)" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{CF76DBE9-7FF0-43DF-9377-7F3A48227673}" name="Average of Loan (,000)" dataCellStyle="Currency">
       <calculatedColumnFormula>$D2/$C2*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13061,10 +13058,10 @@
   <autoFilter ref="A1:C22" xr:uid="{21D014A8-0D83-4259-BFF4-5288BB506F26}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FEE3DE20-AB8E-4625-929F-BE625518275D}" name="Period" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8F8D763E-93BE-4AF3-AB30-C00B951A1377}" name="Median Sydney" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{8F8D763E-93BE-4AF3-AB30-C00B951A1377}" name="Median Sydney (,000)" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[5]Data1!$A:$A,[5]Data1!$B:$B,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{440C39EB-0438-4EAA-9E8C-0A59FBE489EC}" name="NSW Median Other Than Sydney" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{440C39EB-0438-4EAA-9E8C-0A59FBE489EC}" name="NSW Median Other Than Sydney (,000)" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[5]Data1!$A:$A,[5]Data1!$C:$C,0,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13391,8 +13388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32EB71F-F5C1-4500-9DCC-A19E66754BA6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13410,7 +13407,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13433,10 +13430,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -14672,7 +14669,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14695,10 +14692,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -15934,7 +15931,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15962,10 +15959,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -17201,7 +17198,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17224,10 +17221,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -17238,11 +17235,11 @@
         <v>3</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" ref="C2">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C2,0,0)</f>
+        <f t="array" ref="C2">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C2,0,0)</f>
         <v>4098</v>
       </c>
       <c r="D2" s="6" cm="1">
-        <f t="array" ref="D2">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D2,0,0)</f>
+        <f t="array" ref="D2">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D2,0,0)</f>
         <v>1977.6000000000001</v>
       </c>
       <c r="E2" s="6">
@@ -17258,11 +17255,11 @@
         <v>3</v>
       </c>
       <c r="C3" cm="1">
-        <f t="array" ref="C3">_xlfn.XLOOKUP($A3,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C3,0,0)</f>
+        <f t="array" ref="C3">_xlfn.XLOOKUP($A3,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C3,0,0)</f>
         <v>3922</v>
       </c>
       <c r="D3" s="6" cm="1">
-        <f t="array" ref="D3">_xlfn.XLOOKUP($A3,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D3,0,0)</f>
+        <f t="array" ref="D3">_xlfn.XLOOKUP($A3,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D3,0,0)</f>
         <v>2067.6999999999998</v>
       </c>
       <c r="E3" s="6">
@@ -17278,11 +17275,11 @@
         <v>3</v>
       </c>
       <c r="C4" cm="1">
-        <f t="array" ref="C4">_xlfn.XLOOKUP($A4,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C4,0,0)</f>
+        <f t="array" ref="C4">_xlfn.XLOOKUP($A4,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C4,0,0)</f>
         <v>3660</v>
       </c>
       <c r="D4" s="6" cm="1">
-        <f t="array" ref="D4">_xlfn.XLOOKUP($A4,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D4,0,0)</f>
+        <f t="array" ref="D4">_xlfn.XLOOKUP($A4,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D4,0,0)</f>
         <v>2002.2</v>
       </c>
       <c r="E4" s="6">
@@ -17298,11 +17295,11 @@
         <v>3</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">_xlfn.XLOOKUP($A5,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C5,0,0)</f>
+        <f t="array" ref="C5">_xlfn.XLOOKUP($A5,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C5,0,0)</f>
         <v>3805</v>
       </c>
       <c r="D5" s="6" cm="1">
-        <f t="array" ref="D5">_xlfn.XLOOKUP($A5,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D5,0,0)</f>
+        <f t="array" ref="D5">_xlfn.XLOOKUP($A5,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D5,0,0)</f>
         <v>1959.3000000000002</v>
       </c>
       <c r="E5" s="6">
@@ -17318,11 +17315,11 @@
         <v>3</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">_xlfn.XLOOKUP($A6,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C6,0,0)</f>
+        <f t="array" ref="C6">_xlfn.XLOOKUP($A6,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C6,0,0)</f>
         <v>4068</v>
       </c>
       <c r="D6" s="6" cm="1">
-        <f t="array" ref="D6">_xlfn.XLOOKUP($A6,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D6,0,0)</f>
+        <f t="array" ref="D6">_xlfn.XLOOKUP($A6,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D6,0,0)</f>
         <v>2072.6</v>
       </c>
       <c r="E6" s="6">
@@ -17338,11 +17335,11 @@
         <v>3</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" ref="C7">_xlfn.XLOOKUP($A7,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C7,0,0)</f>
+        <f t="array" ref="C7">_xlfn.XLOOKUP($A7,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C7,0,0)</f>
         <v>3986</v>
       </c>
       <c r="D7" s="6" cm="1">
-        <f t="array" ref="D7">_xlfn.XLOOKUP($A7,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D7,0,0)</f>
+        <f t="array" ref="D7">_xlfn.XLOOKUP($A7,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D7,0,0)</f>
         <v>2142.8000000000002</v>
       </c>
       <c r="E7" s="6">
@@ -17358,11 +17355,11 @@
         <v>3</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" ref="C8">_xlfn.XLOOKUP($A8,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C8,0,0)</f>
+        <f t="array" ref="C8">_xlfn.XLOOKUP($A8,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C8,0,0)</f>
         <v>3090</v>
       </c>
       <c r="D8" s="6" cm="1">
-        <f t="array" ref="D8">_xlfn.XLOOKUP($A8,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D8,0,0)</f>
+        <f t="array" ref="D8">_xlfn.XLOOKUP($A8,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D8,0,0)</f>
         <v>2226.7000000000003</v>
       </c>
       <c r="E8" s="6">
@@ -17378,11 +17375,11 @@
         <v>3</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" ref="C9">_xlfn.XLOOKUP($A9,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C9,0,0)</f>
+        <f t="array" ref="C9">_xlfn.XLOOKUP($A9,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C9,0,0)</f>
         <v>2960</v>
       </c>
       <c r="D9" s="6" cm="1">
-        <f t="array" ref="D9">_xlfn.XLOOKUP($A9,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D9,0,0)</f>
+        <f t="array" ref="D9">_xlfn.XLOOKUP($A9,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D9,0,0)</f>
         <v>2013.7999999999997</v>
       </c>
       <c r="E9" s="6">
@@ -17398,11 +17395,11 @@
         <v>3</v>
       </c>
       <c r="C10" cm="1">
-        <f t="array" ref="C10">_xlfn.XLOOKUP($A10,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C10,0,0)</f>
+        <f t="array" ref="C10">_xlfn.XLOOKUP($A10,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C10,0,0)</f>
         <v>3510</v>
       </c>
       <c r="D10" s="6" cm="1">
-        <f t="array" ref="D10">_xlfn.XLOOKUP($A10,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D10,0,0)</f>
+        <f t="array" ref="D10">_xlfn.XLOOKUP($A10,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D10,0,0)</f>
         <v>1929.1999999999998</v>
       </c>
       <c r="E10" s="6">
@@ -17418,11 +17415,11 @@
         <v>3</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" ref="C11">_xlfn.XLOOKUP($A11,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C11,0,0)</f>
+        <f t="array" ref="C11">_xlfn.XLOOKUP($A11,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C11,0,0)</f>
         <v>3050</v>
       </c>
       <c r="D11" s="6" cm="1">
-        <f t="array" ref="D11">_xlfn.XLOOKUP($A11,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D11,0,0)</f>
+        <f t="array" ref="D11">_xlfn.XLOOKUP($A11,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D11,0,0)</f>
         <v>1965.3999999999999</v>
       </c>
       <c r="E11" s="6">
@@ -17438,11 +17435,11 @@
         <v>3</v>
       </c>
       <c r="C12" cm="1">
-        <f t="array" ref="C12">_xlfn.XLOOKUP($A12,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C12,0,0)</f>
+        <f t="array" ref="C12">_xlfn.XLOOKUP($A12,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C12,0,0)</f>
         <v>3024</v>
       </c>
       <c r="D12" s="6" cm="1">
-        <f t="array" ref="D12">_xlfn.XLOOKUP($A12,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D12,0,0)</f>
+        <f t="array" ref="D12">_xlfn.XLOOKUP($A12,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D12,0,0)</f>
         <v>1561.8</v>
       </c>
       <c r="E12" s="6">
@@ -17458,11 +17455,11 @@
         <v>3</v>
       </c>
       <c r="C13" cm="1">
-        <f t="array" ref="C13">_xlfn.XLOOKUP($A13,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C13,0,0)</f>
+        <f t="array" ref="C13">_xlfn.XLOOKUP($A13,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C13,0,0)</f>
         <v>3410</v>
       </c>
       <c r="D13" s="6" cm="1">
-        <f t="array" ref="D13">_xlfn.XLOOKUP($A13,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D13,0,0)</f>
+        <f t="array" ref="D13">_xlfn.XLOOKUP($A13,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D13,0,0)</f>
         <v>1838</v>
       </c>
       <c r="E13" s="6">
@@ -17478,11 +17475,11 @@
         <v>3</v>
       </c>
       <c r="C14" cm="1">
-        <f t="array" ref="C14">_xlfn.XLOOKUP($A14,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C14,0,0)</f>
+        <f t="array" ref="C14">_xlfn.XLOOKUP($A14,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C14,0,0)</f>
         <v>3594</v>
       </c>
       <c r="D14" s="6" cm="1">
-        <f t="array" ref="D14">_xlfn.XLOOKUP($A14,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D14,0,0)</f>
+        <f t="array" ref="D14">_xlfn.XLOOKUP($A14,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D14,0,0)</f>
         <v>1926.2</v>
       </c>
       <c r="E14" s="6">
@@ -17498,11 +17495,11 @@
         <v>3</v>
       </c>
       <c r="C15" cm="1">
-        <f t="array" ref="C15">_xlfn.XLOOKUP($A15,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C15,0,0)</f>
+        <f t="array" ref="C15">_xlfn.XLOOKUP($A15,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C15,0,0)</f>
         <v>3318</v>
       </c>
       <c r="D15" s="6" cm="1">
-        <f t="array" ref="D15">_xlfn.XLOOKUP($A15,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D15,0,0)</f>
+        <f t="array" ref="D15">_xlfn.XLOOKUP($A15,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D15,0,0)</f>
         <v>1919.5</v>
       </c>
       <c r="E15" s="6">
@@ -17518,11 +17515,11 @@
         <v>3</v>
       </c>
       <c r="C16" cm="1">
-        <f t="array" ref="C16">_xlfn.XLOOKUP($A16,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C16,0,0)</f>
+        <f t="array" ref="C16">_xlfn.XLOOKUP($A16,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C16,0,0)</f>
         <v>3777</v>
       </c>
       <c r="D16" s="6" cm="1">
-        <f t="array" ref="D16">_xlfn.XLOOKUP($A16,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D16,0,0)</f>
+        <f t="array" ref="D16">_xlfn.XLOOKUP($A16,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D16,0,0)</f>
         <v>2160.1999999999998</v>
       </c>
       <c r="E16" s="6">
@@ -17538,11 +17535,11 @@
         <v>3</v>
       </c>
       <c r="C17" cm="1">
-        <f t="array" ref="C17">_xlfn.XLOOKUP($A17,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C17,0,0)</f>
+        <f t="array" ref="C17">_xlfn.XLOOKUP($A17,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C17,0,0)</f>
         <v>3945</v>
       </c>
       <c r="D17" s="6" cm="1">
-        <f t="array" ref="D17">_xlfn.XLOOKUP($A17,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D17,0,0)</f>
+        <f t="array" ref="D17">_xlfn.XLOOKUP($A17,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D17,0,0)</f>
         <v>2249</v>
       </c>
       <c r="E17" s="6">
@@ -17558,11 +17555,11 @@
         <v>3</v>
       </c>
       <c r="C18" cm="1">
-        <f t="array" ref="C18">_xlfn.XLOOKUP($A18,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C18,0,0)</f>
+        <f t="array" ref="C18">_xlfn.XLOOKUP($A18,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C18,0,0)</f>
         <v>4066</v>
       </c>
       <c r="D18" s="6" cm="1">
-        <f t="array" ref="D18">_xlfn.XLOOKUP($A18,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D18,0,0)</f>
+        <f t="array" ref="D18">_xlfn.XLOOKUP($A18,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D18,0,0)</f>
         <v>2274.6999999999998</v>
       </c>
       <c r="E18" s="6">
@@ -17578,11 +17575,11 @@
         <v>3</v>
       </c>
       <c r="C19" cm="1">
-        <f t="array" ref="C19">_xlfn.XLOOKUP($A19,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C19,0,0)</f>
+        <f t="array" ref="C19">_xlfn.XLOOKUP($A19,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C19,0,0)</f>
         <v>4488</v>
       </c>
       <c r="D19" s="6" cm="1">
-        <f t="array" ref="D19">_xlfn.XLOOKUP($A19,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D19,0,0)</f>
+        <f t="array" ref="D19">_xlfn.XLOOKUP($A19,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D19,0,0)</f>
         <v>2474.9</v>
       </c>
       <c r="E19" s="6">
@@ -17598,11 +17595,11 @@
         <v>3</v>
       </c>
       <c r="C20" cm="1">
-        <f t="array" ref="C20">_xlfn.XLOOKUP($A20,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C20,0,0)</f>
+        <f t="array" ref="C20">_xlfn.XLOOKUP($A20,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C20,0,0)</f>
         <v>3336</v>
       </c>
       <c r="D20" s="6" cm="1">
-        <f t="array" ref="D20">_xlfn.XLOOKUP($A20,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D20,0,0)</f>
+        <f t="array" ref="D20">_xlfn.XLOOKUP($A20,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D20,0,0)</f>
         <v>2720</v>
       </c>
       <c r="E20" s="6">
@@ -17618,11 +17615,11 @@
         <v>3</v>
       </c>
       <c r="C21" cm="1">
-        <f t="array" ref="C21">_xlfn.XLOOKUP($A21,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C21,0,0)</f>
+        <f t="array" ref="C21">_xlfn.XLOOKUP($A21,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C21,0,0)</f>
         <v>3487</v>
       </c>
       <c r="D21" s="6" cm="1">
-        <f t="array" ref="D21">_xlfn.XLOOKUP($A21,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D21,0,0)</f>
+        <f t="array" ref="D21">_xlfn.XLOOKUP($A21,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D21,0,0)</f>
         <v>2647.2999999999997</v>
       </c>
       <c r="E21" s="6">
@@ -17638,11 +17635,11 @@
         <v>3</v>
       </c>
       <c r="C22" cm="1">
-        <f t="array" ref="C22">_xlfn.XLOOKUP($A22,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C22,0,0)</f>
+        <f t="array" ref="C22">_xlfn.XLOOKUP($A22,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C22,0,0)</f>
         <v>4913</v>
       </c>
       <c r="D22" s="6" cm="1">
-        <f t="array" ref="D22">_xlfn.XLOOKUP($A22,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D22,0,0)</f>
+        <f t="array" ref="D22">_xlfn.XLOOKUP($A22,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D22,0,0)</f>
         <v>2825.1000000000004</v>
       </c>
       <c r="E22" s="6">
@@ -17658,11 +17655,11 @@
         <v>3</v>
       </c>
       <c r="C23" cm="1">
-        <f t="array" ref="C23">_xlfn.XLOOKUP($A23,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C23,0,0)</f>
+        <f t="array" ref="C23">_xlfn.XLOOKUP($A23,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C23,0,0)</f>
         <v>4601</v>
       </c>
       <c r="D23" s="6" cm="1">
-        <f t="array" ref="D23">_xlfn.XLOOKUP($A23,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D23,0,0)</f>
+        <f t="array" ref="D23">_xlfn.XLOOKUP($A23,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D23,0,0)</f>
         <v>3078.2</v>
       </c>
       <c r="E23" s="6">
@@ -17678,11 +17675,11 @@
         <v>3</v>
       </c>
       <c r="C24" cm="1">
-        <f t="array" ref="C24">_xlfn.XLOOKUP($A24,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C24,0,0)</f>
+        <f t="array" ref="C24">_xlfn.XLOOKUP($A24,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C24,0,0)</f>
         <v>5229</v>
       </c>
       <c r="D24" s="6" cm="1">
-        <f t="array" ref="D24">_xlfn.XLOOKUP($A24,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D24,0,0)</f>
+        <f t="array" ref="D24">_xlfn.XLOOKUP($A24,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D24,0,0)</f>
         <v>3218.2999999999997</v>
       </c>
       <c r="E24" s="6">
@@ -17698,11 +17695,11 @@
         <v>3</v>
       </c>
       <c r="C25" cm="1">
-        <f t="array" ref="C25">_xlfn.XLOOKUP($A25,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C25,0,0)</f>
+        <f t="array" ref="C25">_xlfn.XLOOKUP($A25,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C25,0,0)</f>
         <v>5621</v>
       </c>
       <c r="D25" s="6" cm="1">
-        <f t="array" ref="D25">_xlfn.XLOOKUP($A25,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D25,0,0)</f>
+        <f t="array" ref="D25">_xlfn.XLOOKUP($A25,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D25,0,0)</f>
         <v>3407.7999999999997</v>
       </c>
       <c r="E25" s="6">
@@ -17718,11 +17715,11 @@
         <v>3</v>
       </c>
       <c r="C26" cm="1">
-        <f t="array" ref="C26">_xlfn.XLOOKUP($A26,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C26,0,0)</f>
+        <f t="array" ref="C26">_xlfn.XLOOKUP($A26,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C26,0,0)</f>
         <v>5651</v>
       </c>
       <c r="D26" s="6" cm="1">
-        <f t="array" ref="D26">_xlfn.XLOOKUP($A26,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D26,0,0)</f>
+        <f t="array" ref="D26">_xlfn.XLOOKUP($A26,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D26,0,0)</f>
         <v>3635</v>
       </c>
       <c r="E26" s="6">
@@ -17738,11 +17735,11 @@
         <v>3</v>
       </c>
       <c r="C27" cm="1">
-        <f t="array" ref="C27">_xlfn.XLOOKUP($A27,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C27,0,0)</f>
+        <f t="array" ref="C27">_xlfn.XLOOKUP($A27,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C27,0,0)</f>
         <v>5667</v>
       </c>
       <c r="D27" s="6" cm="1">
-        <f t="array" ref="D27">_xlfn.XLOOKUP($A27,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D27,0,0)</f>
+        <f t="array" ref="D27">_xlfn.XLOOKUP($A27,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D27,0,0)</f>
         <v>3653.1000000000004</v>
       </c>
       <c r="E27" s="6">
@@ -17758,11 +17755,11 @@
         <v>3</v>
       </c>
       <c r="C28" cm="1">
-        <f t="array" ref="C28">_xlfn.XLOOKUP($A28,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C28,0,0)</f>
+        <f t="array" ref="C28">_xlfn.XLOOKUP($A28,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C28,0,0)</f>
         <v>5525</v>
       </c>
       <c r="D28" s="6" cm="1">
-        <f t="array" ref="D28">_xlfn.XLOOKUP($A28,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D28,0,0)</f>
+        <f t="array" ref="D28">_xlfn.XLOOKUP($A28,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D28,0,0)</f>
         <v>3815.3</v>
       </c>
       <c r="E28" s="6">
@@ -17778,11 +17775,11 @@
         <v>3</v>
       </c>
       <c r="C29" cm="1">
-        <f t="array" ref="C29">_xlfn.XLOOKUP($A29,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C29,0,0)</f>
+        <f t="array" ref="C29">_xlfn.XLOOKUP($A29,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C29,0,0)</f>
         <v>5373</v>
       </c>
       <c r="D29" s="6" cm="1">
-        <f t="array" ref="D29">_xlfn.XLOOKUP($A29,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D29,0,0)</f>
+        <f t="array" ref="D29">_xlfn.XLOOKUP($A29,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D29,0,0)</f>
         <v>3637.3</v>
       </c>
       <c r="E29" s="6">
@@ -17798,11 +17795,11 @@
         <v>3</v>
       </c>
       <c r="C30" cm="1">
-        <f t="array" ref="C30">_xlfn.XLOOKUP($A30,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C30,0,0)</f>
+        <f t="array" ref="C30">_xlfn.XLOOKUP($A30,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C30,0,0)</f>
         <v>6442</v>
       </c>
       <c r="D30" s="6" cm="1">
-        <f t="array" ref="D30">_xlfn.XLOOKUP($A30,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D30,0,0)</f>
+        <f t="array" ref="D30">_xlfn.XLOOKUP($A30,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D30,0,0)</f>
         <v>4050.4</v>
       </c>
       <c r="E30" s="6">
@@ -17818,11 +17815,11 @@
         <v>3</v>
       </c>
       <c r="C31" cm="1">
-        <f t="array" ref="C31">_xlfn.XLOOKUP($A31,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C31,0,0)</f>
+        <f t="array" ref="C31">_xlfn.XLOOKUP($A31,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C31,0,0)</f>
         <v>6171</v>
       </c>
       <c r="D31" s="6" cm="1">
-        <f t="array" ref="D31">_xlfn.XLOOKUP($A31,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D31,0,0)</f>
+        <f t="array" ref="D31">_xlfn.XLOOKUP($A31,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D31,0,0)</f>
         <v>4133.2</v>
       </c>
       <c r="E31" s="6">
@@ -17838,11 +17835,11 @@
         <v>3</v>
       </c>
       <c r="C32" cm="1">
-        <f t="array" ref="C32">_xlfn.XLOOKUP($A32,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C32,0,0)</f>
+        <f t="array" ref="C32">_xlfn.XLOOKUP($A32,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C32,0,0)</f>
         <v>4690</v>
       </c>
       <c r="D32" s="6" cm="1">
-        <f t="array" ref="D32">_xlfn.XLOOKUP($A32,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D32,0,0)</f>
+        <f t="array" ref="D32">_xlfn.XLOOKUP($A32,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D32,0,0)</f>
         <v>4620.0999999999995</v>
       </c>
       <c r="E32" s="6">
@@ -17858,11 +17855,11 @@
         <v>3</v>
       </c>
       <c r="C33" cm="1">
-        <f t="array" ref="C33">_xlfn.XLOOKUP($A33,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C33,0,0)</f>
+        <f t="array" ref="C33">_xlfn.XLOOKUP($A33,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C33,0,0)</f>
         <v>4571</v>
       </c>
       <c r="D33" s="6" cm="1">
-        <f t="array" ref="D33">_xlfn.XLOOKUP($A33,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D33,0,0)</f>
+        <f t="array" ref="D33">_xlfn.XLOOKUP($A33,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D33,0,0)</f>
         <v>4191.1000000000004</v>
       </c>
       <c r="E33" s="6">
@@ -17878,11 +17875,11 @@
         <v>3</v>
       </c>
       <c r="C34" cm="1">
-        <f t="array" ref="C34">_xlfn.XLOOKUP($A34,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C34,0,0)</f>
+        <f t="array" ref="C34">_xlfn.XLOOKUP($A34,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C34,0,0)</f>
         <v>6238</v>
       </c>
       <c r="D34" s="6" cm="1">
-        <f t="array" ref="D34">_xlfn.XLOOKUP($A34,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D34,0,0)</f>
+        <f t="array" ref="D34">_xlfn.XLOOKUP($A34,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D34,0,0)</f>
         <v>4006.2</v>
       </c>
       <c r="E34" s="6">
@@ -17898,11 +17895,11 @@
         <v>3</v>
       </c>
       <c r="C35" cm="1">
-        <f t="array" ref="C35">_xlfn.XLOOKUP($A35,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C35,0,0)</f>
+        <f t="array" ref="C35">_xlfn.XLOOKUP($A35,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C35,0,0)</f>
         <v>4932</v>
       </c>
       <c r="D35" s="6" cm="1">
-        <f t="array" ref="D35">_xlfn.XLOOKUP($A35,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D35,0,0)</f>
+        <f t="array" ref="D35">_xlfn.XLOOKUP($A35,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D35,0,0)</f>
         <v>3925.5</v>
       </c>
       <c r="E35" s="6">
@@ -17918,11 +17915,11 @@
         <v>3</v>
       </c>
       <c r="C36" cm="1">
-        <f t="array" ref="C36">_xlfn.XLOOKUP($A36,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C36,0,0)</f>
+        <f t="array" ref="C36">_xlfn.XLOOKUP($A36,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C36,0,0)</f>
         <v>5807</v>
       </c>
       <c r="D36" s="6" cm="1">
-        <f t="array" ref="D36">_xlfn.XLOOKUP($A36,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D36,0,0)</f>
+        <f t="array" ref="D36">_xlfn.XLOOKUP($A36,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D36,0,0)</f>
         <v>3795.4</v>
       </c>
       <c r="E36" s="6">
@@ -17938,11 +17935,11 @@
         <v>3</v>
       </c>
       <c r="C37" cm="1">
-        <f t="array" ref="C37">_xlfn.XLOOKUP($A37,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C37,0,0)</f>
+        <f t="array" ref="C37">_xlfn.XLOOKUP($A37,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C37,0,0)</f>
         <v>5379</v>
       </c>
       <c r="D37" s="6" cm="1">
-        <f t="array" ref="D37">_xlfn.XLOOKUP($A37,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D37,0,0)</f>
+        <f t="array" ref="D37">_xlfn.XLOOKUP($A37,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D37,0,0)</f>
         <v>3566.4</v>
       </c>
       <c r="E37" s="6">
@@ -17958,11 +17955,11 @@
         <v>3</v>
       </c>
       <c r="C38" cm="1">
-        <f t="array" ref="C38">_xlfn.XLOOKUP($A38,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C38,0,0)</f>
+        <f t="array" ref="C38">_xlfn.XLOOKUP($A38,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C38,0,0)</f>
         <v>4798</v>
       </c>
       <c r="D38" s="6" cm="1">
-        <f t="array" ref="D38">_xlfn.XLOOKUP($A38,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D38,0,0)</f>
+        <f t="array" ref="D38">_xlfn.XLOOKUP($A38,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D38,0,0)</f>
         <v>3311.7</v>
       </c>
       <c r="E38" s="6">
@@ -17978,11 +17975,11 @@
         <v>3</v>
       </c>
       <c r="C39" cm="1">
-        <f t="array" ref="C39">_xlfn.XLOOKUP($A39,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C39,0,0)</f>
+        <f t="array" ref="C39">_xlfn.XLOOKUP($A39,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C39,0,0)</f>
         <v>4791</v>
       </c>
       <c r="D39" s="6" cm="1">
-        <f t="array" ref="D39">_xlfn.XLOOKUP($A39,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D39,0,0)</f>
+        <f t="array" ref="D39">_xlfn.XLOOKUP($A39,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D39,0,0)</f>
         <v>3220.6</v>
       </c>
       <c r="E39" s="6">
@@ -17998,11 +17995,11 @@
         <v>3</v>
       </c>
       <c r="C40" cm="1">
-        <f t="array" ref="C40">_xlfn.XLOOKUP($A40,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C40,0,0)</f>
+        <f t="array" ref="C40">_xlfn.XLOOKUP($A40,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C40,0,0)</f>
         <v>4330</v>
       </c>
       <c r="D40" s="6" cm="1">
-        <f t="array" ref="D40">_xlfn.XLOOKUP($A40,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D40,0,0)</f>
+        <f t="array" ref="D40">_xlfn.XLOOKUP($A40,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D40,0,0)</f>
         <v>3004.2999999999997</v>
       </c>
       <c r="E40" s="6">
@@ -18018,11 +18015,11 @@
         <v>3</v>
       </c>
       <c r="C41" cm="1">
-        <f t="array" ref="C41">_xlfn.XLOOKUP($A41,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C41,0,0)</f>
+        <f t="array" ref="C41">_xlfn.XLOOKUP($A41,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C41,0,0)</f>
         <v>4356</v>
       </c>
       <c r="D41" s="6" cm="1">
-        <f t="array" ref="D41">_xlfn.XLOOKUP($A41,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D41,0,0)</f>
+        <f t="array" ref="D41">_xlfn.XLOOKUP($A41,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D41,0,0)</f>
         <v>3041.5</v>
       </c>
       <c r="E41" s="6">
@@ -18038,11 +18035,11 @@
         <v>3</v>
       </c>
       <c r="C42" cm="1">
-        <f t="array" ref="C42">_xlfn.XLOOKUP($A42,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C42,0,0)</f>
+        <f t="array" ref="C42">_xlfn.XLOOKUP($A42,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C42,0,0)</f>
         <v>4641</v>
       </c>
       <c r="D42" s="6" cm="1">
-        <f t="array" ref="D42">_xlfn.XLOOKUP($A42,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D42,0,0)</f>
+        <f t="array" ref="D42">_xlfn.XLOOKUP($A42,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D42,0,0)</f>
         <v>2923.8</v>
       </c>
       <c r="E42" s="6">
@@ -18058,11 +18055,11 @@
         <v>3</v>
       </c>
       <c r="C43" cm="1">
-        <f t="array" ref="C43">_xlfn.XLOOKUP($A43,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C43,0,0)</f>
+        <f t="array" ref="C43">_xlfn.XLOOKUP($A43,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C43,0,0)</f>
         <v>4273</v>
       </c>
       <c r="D43" s="6" cm="1">
-        <f t="array" ref="D43">_xlfn.XLOOKUP($A43,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D43,0,0)</f>
+        <f t="array" ref="D43">_xlfn.XLOOKUP($A43,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D43,0,0)</f>
         <v>2847.6</v>
       </c>
       <c r="E43" s="6">
@@ -18078,11 +18075,11 @@
         <v>3</v>
       </c>
       <c r="C44" cm="1">
-        <f t="array" ref="C44">_xlfn.XLOOKUP($A44,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C44,0,0)</f>
+        <f t="array" ref="C44">_xlfn.XLOOKUP($A44,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C44,0,0)</f>
         <v>3123</v>
       </c>
       <c r="D44" s="6" cm="1">
-        <f t="array" ref="D44">_xlfn.XLOOKUP($A44,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D44,0,0)</f>
+        <f t="array" ref="D44">_xlfn.XLOOKUP($A44,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D44,0,0)</f>
         <v>2947.4</v>
       </c>
       <c r="E44" s="6">
@@ -18098,11 +18095,11 @@
         <v>3</v>
       </c>
       <c r="C45" cm="1">
-        <f t="array" ref="C45">_xlfn.XLOOKUP($A45,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C45,0,0)</f>
+        <f t="array" ref="C45">_xlfn.XLOOKUP($A45,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C45,0,0)</f>
         <v>3332</v>
       </c>
       <c r="D45" s="6" cm="1">
-        <f t="array" ref="D45">_xlfn.XLOOKUP($A45,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D45,0,0)</f>
+        <f t="array" ref="D45">_xlfn.XLOOKUP($A45,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D45,0,0)</f>
         <v>3017</v>
       </c>
       <c r="E45" s="6">
@@ -18118,11 +18115,11 @@
         <v>3</v>
       </c>
       <c r="C46" cm="1">
-        <f t="array" ref="C46">_xlfn.XLOOKUP($A46,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C46,0,0)</f>
+        <f t="array" ref="C46">_xlfn.XLOOKUP($A46,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C46,0,0)</f>
         <v>4407</v>
       </c>
       <c r="D46" s="6" cm="1">
-        <f t="array" ref="D46">_xlfn.XLOOKUP($A46,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D46,0,0)</f>
+        <f t="array" ref="D46">_xlfn.XLOOKUP($A46,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D46,0,0)</f>
         <v>2879.2</v>
       </c>
       <c r="E46" s="6">
@@ -18138,11 +18135,11 @@
         <v>3</v>
       </c>
       <c r="C47" cm="1">
-        <f t="array" ref="C47">_xlfn.XLOOKUP($A47,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C47,0,0)</f>
+        <f t="array" ref="C47">_xlfn.XLOOKUP($A47,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C47,0,0)</f>
         <v>3680</v>
       </c>
       <c r="D47" s="6" cm="1">
-        <f t="array" ref="D47">_xlfn.XLOOKUP($A47,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D47,0,0)</f>
+        <f t="array" ref="D47">_xlfn.XLOOKUP($A47,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D47,0,0)</f>
         <v>2959.1</v>
       </c>
       <c r="E47" s="6">
@@ -18158,11 +18155,11 @@
         <v>3</v>
       </c>
       <c r="C48" cm="1">
-        <f t="array" ref="C48">_xlfn.XLOOKUP($A48,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C48,0,0)</f>
+        <f t="array" ref="C48">_xlfn.XLOOKUP($A48,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C48,0,0)</f>
         <v>4865</v>
       </c>
       <c r="D48" s="6" cm="1">
-        <f t="array" ref="D48">_xlfn.XLOOKUP($A48,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D48,0,0)</f>
+        <f t="array" ref="D48">_xlfn.XLOOKUP($A48,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D48,0,0)</f>
         <v>3054.1</v>
       </c>
       <c r="E48" s="6">
@@ -18178,11 +18175,11 @@
         <v>3</v>
       </c>
       <c r="C49" cm="1">
-        <f t="array" ref="C49">_xlfn.XLOOKUP($A49,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C49,0,0)</f>
+        <f t="array" ref="C49">_xlfn.XLOOKUP($A49,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C49,0,0)</f>
         <v>4809</v>
       </c>
       <c r="D49" s="6" cm="1">
-        <f t="array" ref="D49">_xlfn.XLOOKUP($A49,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D49,0,0)</f>
+        <f t="array" ref="D49">_xlfn.XLOOKUP($A49,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D49,0,0)</f>
         <v>3166.4</v>
       </c>
       <c r="E49" s="6">
@@ -18198,11 +18195,11 @@
         <v>3</v>
       </c>
       <c r="C50" cm="1">
-        <f t="array" ref="C50">_xlfn.XLOOKUP($A50,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C50,0,0)</f>
+        <f t="array" ref="C50">_xlfn.XLOOKUP($A50,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C50,0,0)</f>
         <v>4361</v>
       </c>
       <c r="D50" s="6" cm="1">
-        <f t="array" ref="D50">_xlfn.XLOOKUP($A50,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D50,0,0)</f>
+        <f t="array" ref="D50">_xlfn.XLOOKUP($A50,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D50,0,0)</f>
         <v>3193.2</v>
       </c>
       <c r="E50" s="6">
@@ -18218,11 +18215,11 @@
         <v>3</v>
       </c>
       <c r="C51" cm="1">
-        <f t="array" ref="C51">_xlfn.XLOOKUP($A51,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C51,0,0)</f>
+        <f t="array" ref="C51">_xlfn.XLOOKUP($A51,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C51,0,0)</f>
         <v>4515</v>
       </c>
       <c r="D51" s="6" cm="1">
-        <f t="array" ref="D51">_xlfn.XLOOKUP($A51,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D51,0,0)</f>
+        <f t="array" ref="D51">_xlfn.XLOOKUP($A51,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D51,0,0)</f>
         <v>3237.3999999999996</v>
       </c>
       <c r="E51" s="6">
@@ -18238,11 +18235,11 @@
         <v>3</v>
       </c>
       <c r="C52" cm="1">
-        <f t="array" ref="C52">_xlfn.XLOOKUP($A52,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C52,0,0)</f>
+        <f t="array" ref="C52">_xlfn.XLOOKUP($A52,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C52,0,0)</f>
         <v>4331</v>
       </c>
       <c r="D52" s="6" cm="1">
-        <f t="array" ref="D52">_xlfn.XLOOKUP($A52,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D52,0,0)</f>
+        <f t="array" ref="D52">_xlfn.XLOOKUP($A52,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D52,0,0)</f>
         <v>3334.4</v>
       </c>
       <c r="E52" s="6">
@@ -18258,11 +18255,11 @@
         <v>3</v>
       </c>
       <c r="C53" cm="1">
-        <f t="array" ref="C53">_xlfn.XLOOKUP($A53,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C53,0,0)</f>
+        <f t="array" ref="C53">_xlfn.XLOOKUP($A53,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C53,0,0)</f>
         <v>4745</v>
       </c>
       <c r="D53" s="6" cm="1">
-        <f t="array" ref="D53">_xlfn.XLOOKUP($A53,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D53,0,0)</f>
+        <f t="array" ref="D53">_xlfn.XLOOKUP($A53,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D53,0,0)</f>
         <v>3457.4</v>
       </c>
       <c r="E53" s="6">
@@ -18278,11 +18275,11 @@
         <v>3</v>
       </c>
       <c r="C54" cm="1">
-        <f t="array" ref="C54">_xlfn.XLOOKUP($A54,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C54,0,0)</f>
+        <f t="array" ref="C54">_xlfn.XLOOKUP($A54,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C54,0,0)</f>
         <v>5326</v>
       </c>
       <c r="D54" s="6" cm="1">
-        <f t="array" ref="D54">_xlfn.XLOOKUP($A54,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D54,0,0)</f>
+        <f t="array" ref="D54">_xlfn.XLOOKUP($A54,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D54,0,0)</f>
         <v>3447</v>
       </c>
       <c r="E54" s="6">
@@ -18298,11 +18295,11 @@
         <v>3</v>
       </c>
       <c r="C55" cm="1">
-        <f t="array" ref="C55">_xlfn.XLOOKUP($A55,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C55,0,0)</f>
+        <f t="array" ref="C55">_xlfn.XLOOKUP($A55,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C55,0,0)</f>
         <v>4717</v>
       </c>
       <c r="D55" s="6" cm="1">
-        <f t="array" ref="D55">_xlfn.XLOOKUP($A55,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D55,0,0)</f>
+        <f t="array" ref="D55">_xlfn.XLOOKUP($A55,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D55,0,0)</f>
         <v>3444.1</v>
       </c>
       <c r="E55" s="6">
@@ -18318,11 +18315,11 @@
         <v>3</v>
       </c>
       <c r="C56" cm="1">
-        <f t="array" ref="C56">_xlfn.XLOOKUP($A56,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C56,0,0)</f>
+        <f t="array" ref="C56">_xlfn.XLOOKUP($A56,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C56,0,0)</f>
         <v>3824</v>
       </c>
       <c r="D56" s="6" cm="1">
-        <f t="array" ref="D56">_xlfn.XLOOKUP($A56,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D56,0,0)</f>
+        <f t="array" ref="D56">_xlfn.XLOOKUP($A56,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D56,0,0)</f>
         <v>3581.3</v>
       </c>
       <c r="E56" s="6">
@@ -18338,11 +18335,11 @@
         <v>3</v>
       </c>
       <c r="C57" cm="1">
-        <f t="array" ref="C57">_xlfn.XLOOKUP($A57,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C57,0,0)</f>
+        <f t="array" ref="C57">_xlfn.XLOOKUP($A57,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C57,0,0)</f>
         <v>4053</v>
       </c>
       <c r="D57" s="6" cm="1">
-        <f t="array" ref="D57">_xlfn.XLOOKUP($A57,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D57,0,0)</f>
+        <f t="array" ref="D57">_xlfn.XLOOKUP($A57,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D57,0,0)</f>
         <v>3706.4</v>
       </c>
       <c r="E57" s="6">
@@ -18358,11 +18355,11 @@
         <v>3</v>
       </c>
       <c r="C58" cm="1">
-        <f t="array" ref="C58">_xlfn.XLOOKUP($A58,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C58,0,0)</f>
+        <f t="array" ref="C58">_xlfn.XLOOKUP($A58,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C58,0,0)</f>
         <v>5043</v>
       </c>
       <c r="D58" s="6" cm="1">
-        <f t="array" ref="D58">_xlfn.XLOOKUP($A58,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D58,0,0)</f>
+        <f t="array" ref="D58">_xlfn.XLOOKUP($A58,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D58,0,0)</f>
         <v>3882.4</v>
       </c>
       <c r="E58" s="6">
@@ -18378,11 +18375,11 @@
         <v>3</v>
       </c>
       <c r="C59" cm="1">
-        <f t="array" ref="C59">_xlfn.XLOOKUP($A59,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C59,0,0)</f>
+        <f t="array" ref="C59">_xlfn.XLOOKUP($A59,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C59,0,0)</f>
         <v>5312</v>
       </c>
       <c r="D59" s="6" cm="1">
-        <f t="array" ref="D59">_xlfn.XLOOKUP($A59,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D59,0,0)</f>
+        <f t="array" ref="D59">_xlfn.XLOOKUP($A59,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D59,0,0)</f>
         <v>4197.8</v>
       </c>
       <c r="E59" s="6">
@@ -18398,11 +18395,11 @@
         <v>3</v>
       </c>
       <c r="C60" cm="1">
-        <f t="array" ref="C60">_xlfn.XLOOKUP($A60,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C60,0,0)</f>
+        <f t="array" ref="C60">_xlfn.XLOOKUP($A60,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C60,0,0)</f>
         <v>5814</v>
       </c>
       <c r="D60" s="6" cm="1">
-        <f t="array" ref="D60">_xlfn.XLOOKUP($A60,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D60,0,0)</f>
+        <f t="array" ref="D60">_xlfn.XLOOKUP($A60,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D60,0,0)</f>
         <v>3828.4</v>
       </c>
       <c r="E60" s="6">
@@ -18418,11 +18415,11 @@
         <v>3</v>
       </c>
       <c r="C61" cm="1">
-        <f t="array" ref="C61">_xlfn.XLOOKUP($A61,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C61,0,0)</f>
+        <f t="array" ref="C61">_xlfn.XLOOKUP($A61,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C61,0,0)</f>
         <v>5469</v>
       </c>
       <c r="D61" s="6" cm="1">
-        <f t="array" ref="D61">_xlfn.XLOOKUP($A61,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D61,0,0)</f>
+        <f t="array" ref="D61">_xlfn.XLOOKUP($A61,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D61,0,0)</f>
         <v>4075.3</v>
       </c>
       <c r="E61" s="6">
@@ -18438,11 +18435,11 @@
         <v>3</v>
       </c>
       <c r="C62" cm="1">
-        <f t="array" ref="C62">_xlfn.XLOOKUP($A62,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Invest'!C62,0,0)</f>
+        <f t="array" ref="C62">_xlfn.XLOOKUP($A62,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C62,0,0)</f>
         <v>5882</v>
       </c>
       <c r="D62" s="6" cm="1">
-        <f t="array" ref="D62">_xlfn.XLOOKUP($A62,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Invest'!D62,0,0)</f>
+        <f t="array" ref="D62">_xlfn.XLOOKUP($A62,[4]Data1!$A:$A,[4]Data1!$U:$U-'NSW-FHB-Investment'!D62,0,0)</f>
         <v>4218.8</v>
       </c>
       <c r="E62" s="6">
@@ -18463,12 +18460,12 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1796875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18477,10 +18474,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">

--- a/NSW-FHB-vs-Subsequent-Loan.xlsx
+++ b/NSW-FHB-vs-Subsequent-Loan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apacbrookfieldgis-my.sharepoint.com/personal/gabriel_setiawan_apac_bgis_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsetiawan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{9EF795B4-1EAB-4A65-BEC1-4D00CF67CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B87C4B48-6E3A-44E0-8C04-36DE3CEE18A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5FE15-ACD2-4ACD-9DC7-1B6BAF245E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="761" firstSheet="2" activeTab="5" xr2:uid="{C8F7C0F2-68EE-4AE2-878A-187C21B50DC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" tabRatio="761" firstSheet="2" activeTab="5" xr2:uid="{C8F7C0F2-68EE-4AE2-878A-187C21B50DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Comaparison" sheetId="13" r:id="rId1"/>
@@ -185,7 +185,13 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
@@ -11876,9 +11882,6 @@
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Index"/>
       <sheetName val="Data1"/>
@@ -12974,18 +12977,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D6ECAC-B435-4570-B335-B49E64377BDE}" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D6ECAC-B435-4570-B335-B49E64377BDE}" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:E62" xr:uid="{23D6ECAC-B435-4570-B335-B49E64377BDE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B0938CAE-6A59-4292-A13C-10D401AEDD75}" name="Period" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{32353C28-947E-419B-AF94-59A62DA5750D}" name="Occupancy Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{71F09388-1142-4C6A-9BE4-EAE28B399B1E}" name="Quantity of First Home Loan" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{B0938CAE-6A59-4292-A13C-10D401AEDD75}" name="Period" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{32353C28-947E-419B-AF94-59A62DA5750D}" name="Occupancy Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{71F09388-1142-4C6A-9BE4-EAE28B399B1E}" name="Quantity of First Home Loan" dataDxfId="13">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[1]Data1!$A:$A,[1]Data1!$C:$C,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{27E593B9-0730-43DA-845E-7F3E1171E237}" name="Value of Loan (Million)" dataDxfId="10" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{27E593B9-0730-43DA-845E-7F3E1171E237}" name="Value of Loan (Million)" dataDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[1]Data1!$A:$A,[1]Data1!$AE:$AE,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{91722955-2C46-4491-A126-3B04C8520970}" name="Average of Loan (,000)" dataDxfId="9" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{91722955-2C46-4491-A126-3B04C8520970}" name="Average of Loan (,000)" dataDxfId="11" dataCellStyle="Currency">
       <calculatedColumnFormula>$D2/$C2*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12994,10 +12997,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09E9AAE5-570D-42D2-871F-82400B4C39A4}" name="Table2" displayName="Table2" ref="A1:E62" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09E9AAE5-570D-42D2-871F-82400B4C39A4}" name="Table2" displayName="Table2" ref="A1:E62" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:E62" xr:uid="{09E9AAE5-570D-42D2-871F-82400B4C39A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{98A8053F-2BAC-4F99-9519-255A886E7161}" name="Period" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{98A8053F-2BAC-4F99-9519-255A886E7161}" name="Period" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{C4A878D5-EFA4-4FCC-AE7B-48D0FD6B7D4A}" name="Occupancy Type"/>
     <tableColumn id="3" xr3:uid="{1CE8D1EE-5616-4680-8F23-F50E3888258F}" name="Quantity of Subsequent Loan">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[2]Data1!$A:$A,[2]Data1!$C:$C - 'NSW-FHB-OO'!$C2,0,0)</calculatedColumnFormula>
@@ -13014,11 +13017,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3BB4B6B-C333-4C7A-8BB4-CB88218912CE}" name="Table3" displayName="Table3" ref="A1:E62" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F3BB4B6B-C333-4C7A-8BB4-CB88218912CE}" name="Table3" displayName="Table3" ref="A1:E62" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:E62" xr:uid="{F3BB4B6B-C333-4C7A-8BB4-CB88218912CE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3A9B4EA1-78B5-4C1A-9338-95DA43563209}" name="Period" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9D415A8A-B8D1-4D67-8D6E-2BE988773BEE}" name="Occupancy Type" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3A9B4EA1-78B5-4C1A-9338-95DA43563209}" name="Period" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9D415A8A-B8D1-4D67-8D6E-2BE988773BEE}" name="Occupancy Type" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5A958933-196E-4495-99DD-E1440FA20315}" name="Quantity of First Home Loan">
       <calculatedColumnFormula>_xlfn.XLOOKUP($A2,[3]Data1!$A:$A,[3]Data1!$C:$C,0,0)</calculatedColumnFormula>
     </tableColumn>
@@ -13034,10 +13037,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6899335-B73D-471F-9CF2-BD509484DEC3}" name="Table4" displayName="Table4" ref="A1:E62" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6899335-B73D-471F-9CF2-BD509484DEC3}" name="Table4" displayName="Table4" ref="A1:E62" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E62" xr:uid="{E6899335-B73D-471F-9CF2-BD509484DEC3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{364CAB86-5753-4D9B-A105-31DCA2A1191D}" name="Period" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{364CAB86-5753-4D9B-A105-31DCA2A1191D}" name="Period" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{ABF3291D-B282-4143-B4CC-02851E5AD749}" name="Occupancy Type"/>
     <tableColumn id="3" xr3:uid="{C8BAF243-5213-4224-86EC-C1CFA10EACF0}" name="Quantity of Subsequent Loan">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP($A2,[4]Data1!$A:$A,[4]Data1!$C:$C-'NSW-FHB-Investment'!C2,0,0)</calculatedColumnFormula>
@@ -13054,14 +13057,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21D014A8-0D83-4259-BFF4-5288BB506F26}" name="Table5" displayName="Table5" ref="A1:C22" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21D014A8-0D83-4259-BFF4-5288BB506F26}" name="Table5" displayName="Table5" ref="A1:C22" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C22" xr:uid="{21D014A8-0D83-4259-BFF4-5288BB506F26}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FEE3DE20-AB8E-4625-929F-BE625518275D}" name="Period" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8F8D763E-93BE-4AF3-AB30-C00B951A1377}" name="Median Sydney (,000)" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{FEE3DE20-AB8E-4625-929F-BE625518275D}" name="Period" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8F8D763E-93BE-4AF3-AB30-C00B951A1377}" name="Median Sydney (,000)" dataDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[5]Data1!$A:$A,[5]Data1!$B:$B,0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{440C39EB-0438-4EAA-9E8C-0A59FBE489EC}" name="NSW Median Other Than Sydney (,000)" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{440C39EB-0438-4EAA-9E8C-0A59FBE489EC}" name="NSW Median Other Than Sydney (,000)" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[5]Data1!$A:$A,[5]Data1!$C:$C,0,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18460,7 +18463,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
